--- a/natmiOut/OldD0/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.5331222010528</v>
+        <v>59.68504933333333</v>
       </c>
       <c r="H2">
-        <v>36.5331222010528</v>
+        <v>179.055148</v>
       </c>
       <c r="I2">
-        <v>0.1388013369853164</v>
+        <v>0.207862575863973</v>
       </c>
       <c r="J2">
-        <v>0.1388013369853164</v>
+        <v>0.2078625758639731</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N2">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q2">
-        <v>60.29754814862769</v>
+        <v>124.4624270757866</v>
       </c>
       <c r="R2">
-        <v>60.29754814862769</v>
+        <v>1120.16184368208</v>
       </c>
       <c r="S2">
-        <v>0.001936694020056617</v>
+        <v>0.003645436020103641</v>
       </c>
       <c r="T2">
-        <v>0.001936694020056617</v>
+        <v>0.003645436020103641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.5331222010528</v>
+        <v>59.68504933333333</v>
       </c>
       <c r="H3">
-        <v>36.5331222010528</v>
+        <v>179.055148</v>
       </c>
       <c r="I3">
-        <v>0.1388013369853164</v>
+        <v>0.207862575863973</v>
       </c>
       <c r="J3">
-        <v>0.1388013369853164</v>
+        <v>0.2078625758639731</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N3">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q3">
-        <v>3722.134912881949</v>
+        <v>6081.797482481535</v>
       </c>
       <c r="R3">
-        <v>3722.134912881949</v>
+        <v>54736.17734233382</v>
       </c>
       <c r="S3">
-        <v>0.1195510704656486</v>
+        <v>0.1781325025592966</v>
       </c>
       <c r="T3">
-        <v>0.1195510704656486</v>
+        <v>0.1781325025592966</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.5331222010528</v>
+        <v>59.68504933333333</v>
       </c>
       <c r="H4">
-        <v>36.5331222010528</v>
+        <v>179.055148</v>
       </c>
       <c r="I4">
-        <v>0.1388013369853164</v>
+        <v>0.207862575863973</v>
       </c>
       <c r="J4">
-        <v>0.1388013369853164</v>
+        <v>0.2078625758639731</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q4">
-        <v>539.0453838389732</v>
+        <v>890.5813318147855</v>
       </c>
       <c r="R4">
-        <v>539.0453838389732</v>
+        <v>8015.231986333069</v>
       </c>
       <c r="S4">
-        <v>0.01731357249961121</v>
+        <v>0.02608463728457283</v>
       </c>
       <c r="T4">
-        <v>0.01731357249961121</v>
+        <v>0.02608463728457283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>186.013105671863</v>
+        <v>186.4134573333333</v>
       </c>
       <c r="H5">
-        <v>186.013105671863</v>
+        <v>559.240372</v>
       </c>
       <c r="I5">
-        <v>0.7067249172396628</v>
+        <v>0.6492141976897894</v>
       </c>
       <c r="J5">
-        <v>0.7067249172396628</v>
+        <v>0.6492141976897894</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N5">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q5">
-        <v>307.0127467835669</v>
+        <v>388.7317108463466</v>
       </c>
       <c r="R5">
-        <v>307.0127467835669</v>
+        <v>3498.58539761712</v>
       </c>
       <c r="S5">
-        <v>0.009860927500920661</v>
+        <v>0.01138573796261339</v>
       </c>
       <c r="T5">
-        <v>0.009860927500920661</v>
+        <v>0.01138573796261339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>186.013105671863</v>
+        <v>186.4134573333333</v>
       </c>
       <c r="H6">
-        <v>186.013105671863</v>
+        <v>559.240372</v>
       </c>
       <c r="I6">
-        <v>0.7067249172396628</v>
+        <v>0.6492141976897894</v>
       </c>
       <c r="J6">
-        <v>0.7067249172396628</v>
+        <v>0.6492141976897894</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N6">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q6">
-        <v>18951.73018787013</v>
+        <v>18995.19072488012</v>
       </c>
       <c r="R6">
-        <v>18951.73018787013</v>
+        <v>170956.7165239211</v>
       </c>
       <c r="S6">
-        <v>0.6087097013315271</v>
+        <v>0.5563586867469008</v>
       </c>
       <c r="T6">
-        <v>0.6087097013315271</v>
+        <v>0.5563586867469007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>186.013105671863</v>
+        <v>186.4134573333333</v>
       </c>
       <c r="H7">
-        <v>186.013105671863</v>
+        <v>559.240372</v>
       </c>
       <c r="I7">
-        <v>0.7067249172396628</v>
+        <v>0.6492141976897894</v>
       </c>
       <c r="J7">
-        <v>0.7067249172396628</v>
+        <v>0.6492141976897894</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q7">
-        <v>2744.619126560153</v>
+        <v>2781.539882340362</v>
       </c>
       <c r="R7">
-        <v>2744.619126560153</v>
+        <v>25033.85894106326</v>
       </c>
       <c r="S7">
-        <v>0.08815428840721509</v>
+        <v>0.08146977298027522</v>
       </c>
       <c r="T7">
-        <v>0.08815428840721509</v>
+        <v>0.08146977298027519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.6581691057501</v>
+        <v>41.03855533333333</v>
       </c>
       <c r="H8">
-        <v>40.6581691057501</v>
+        <v>123.115666</v>
       </c>
       <c r="I8">
-        <v>0.1544737457750208</v>
+        <v>0.1429232264462375</v>
       </c>
       <c r="J8">
-        <v>0.1544737457750208</v>
+        <v>0.1429232264462375</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N8">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q8">
-        <v>67.10589628220619</v>
+        <v>85.57852020770666</v>
       </c>
       <c r="R8">
-        <v>67.10589628220619</v>
+        <v>770.2066818693601</v>
       </c>
       <c r="S8">
-        <v>0.002155371023046252</v>
+        <v>0.002506547778651129</v>
       </c>
       <c r="T8">
-        <v>0.002155371023046252</v>
+        <v>0.002506547778651129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.6581691057501</v>
+        <v>41.03855533333333</v>
       </c>
       <c r="H9">
-        <v>40.6581691057501</v>
+        <v>123.115666</v>
       </c>
       <c r="I9">
-        <v>0.1544737457750208</v>
+        <v>0.1429232264462375</v>
       </c>
       <c r="J9">
-        <v>0.1544737457750208</v>
+        <v>0.1429232264462375</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N9">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q9">
-        <v>4142.410547051726</v>
+        <v>4181.753811026073</v>
       </c>
       <c r="R9">
-        <v>4142.410547051726</v>
+        <v>37635.78429923466</v>
       </c>
       <c r="S9">
-        <v>0.1330498831448277</v>
+        <v>0.1224812686694409</v>
       </c>
       <c r="T9">
-        <v>0.1330498831448277</v>
+        <v>0.1224812686694409</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.6581691057501</v>
+        <v>41.03855533333333</v>
       </c>
       <c r="H10">
-        <v>40.6581691057501</v>
+        <v>123.115666</v>
       </c>
       <c r="I10">
-        <v>0.1544737457750208</v>
+        <v>0.1429232264462375</v>
       </c>
       <c r="J10">
-        <v>0.1544737457750208</v>
+        <v>0.1429232264462375</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q10">
-        <v>599.9103567219162</v>
+        <v>612.3505245073675</v>
       </c>
       <c r="R10">
-        <v>599.9103567219162</v>
+        <v>5511.154720566307</v>
       </c>
       <c r="S10">
-        <v>0.01926849160714687</v>
+        <v>0.01793540999814546</v>
       </c>
       <c r="T10">
-        <v>0.01926849160714687</v>
+        <v>0.01793540999814546</v>
       </c>
     </row>
   </sheetData>
